--- a/US/data/BOC/FTD/FTDE/ASRVEXBOP_M_historical.xlsx
+++ b/US/data/BOC/FTD/FTDE/ASRVEXBOP_M_historical.xlsx
@@ -2591,92 +2591,88 @@
         <v>2119</v>
       </c>
       <c r="IT2" t="n">
-        <v>1645</v>
+        <v>1643</v>
       </c>
       <c r="IU2" t="n">
-        <v>1336</v>
+        <v>1332</v>
       </c>
       <c r="IV2" t="n">
         <v>1204</v>
       </c>
       <c r="IW2" t="n">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="IX2" t="n">
-        <v>1161</v>
+        <v>1163</v>
       </c>
       <c r="IY2" t="n">
-        <v>1123</v>
+        <v>1116</v>
       </c>
       <c r="IZ2" t="n">
-        <v>993</v>
+        <v>967</v>
       </c>
       <c r="JA2" t="n">
-        <v>896</v>
+        <v>871</v>
       </c>
       <c r="JB2" t="n">
-        <v>944</v>
+        <v>911</v>
       </c>
       <c r="JC2" t="n">
-        <v>909</v>
+        <v>900</v>
       </c>
       <c r="JD2" t="n">
-        <v>945</v>
+        <v>954</v>
       </c>
       <c r="JE2" t="n">
-        <v>966</v>
+        <v>980</v>
       </c>
       <c r="JF2" t="n">
-        <v>998</v>
+        <v>995</v>
       </c>
       <c r="JG2" t="n">
-        <v>975</v>
+        <v>969</v>
       </c>
       <c r="JH2" t="n">
-        <v>974</v>
+        <v>983</v>
       </c>
       <c r="JI2" t="n">
-        <v>997</v>
+        <v>1028</v>
       </c>
       <c r="JJ2" t="n">
-        <v>985</v>
+        <v>1041</v>
       </c>
       <c r="JK2" t="n">
-        <v>999</v>
+        <v>1063</v>
       </c>
       <c r="JL2" t="n">
-        <v>1033</v>
+        <v>1092</v>
       </c>
       <c r="JM2" t="n">
-        <v>1028</v>
+        <v>1094</v>
       </c>
       <c r="JN2" t="n">
-        <v>1068</v>
+        <v>1116</v>
       </c>
       <c r="JO2" t="n">
-        <v>1039</v>
+        <v>1088</v>
       </c>
       <c r="JP2" t="n">
-        <v>970</v>
+        <v>1021</v>
       </c>
       <c r="JQ2" t="n">
-        <v>985</v>
+        <v>1037</v>
       </c>
       <c r="JR2" t="n">
-        <v>957</v>
+        <v>1024</v>
       </c>
       <c r="JS2" t="n">
-        <v>1019</v>
-      </c>
-      <c r="JT2" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="JU2" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+        <v>1093</v>
+      </c>
+      <c r="JT2" t="n">
+        <v>1142</v>
+      </c>
+      <c r="JU2" t="n">
+        <v>1165</v>
       </c>
       <c r="JV2" t="inlineStr">
         <is>
@@ -3495,92 +3491,88 @@
         <v>7585</v>
       </c>
       <c r="IT3" t="n">
-        <v>7516</v>
+        <v>7555</v>
       </c>
       <c r="IU3" t="n">
-        <v>7351</v>
+        <v>7362</v>
       </c>
       <c r="IV3" t="n">
-        <v>5344</v>
+        <v>5431</v>
       </c>
       <c r="IW3" t="n">
-        <v>3616</v>
+        <v>3747</v>
       </c>
       <c r="IX3" t="n">
-        <v>3590</v>
+        <v>3526</v>
       </c>
       <c r="IY3" t="n">
-        <v>3797</v>
+        <v>3724</v>
       </c>
       <c r="IZ3" t="n">
-        <v>3938</v>
+        <v>3910</v>
       </c>
       <c r="JA3" t="n">
-        <v>4076</v>
+        <v>4058</v>
       </c>
       <c r="JB3" t="n">
-        <v>4178</v>
+        <v>4179</v>
       </c>
       <c r="JC3" t="n">
-        <v>4215</v>
+        <v>4321</v>
       </c>
       <c r="JD3" t="n">
-        <v>4462</v>
+        <v>4602</v>
       </c>
       <c r="JE3" t="n">
-        <v>4624</v>
+        <v>4752</v>
       </c>
       <c r="JF3" t="n">
-        <v>4822</v>
+        <v>4833</v>
       </c>
       <c r="JG3" t="n">
-        <v>4588</v>
+        <v>4627</v>
       </c>
       <c r="JH3" t="n">
-        <v>4932</v>
+        <v>4951</v>
       </c>
       <c r="JI3" t="n">
-        <v>5048</v>
+        <v>5064</v>
       </c>
       <c r="JJ3" t="n">
-        <v>5333</v>
+        <v>5294</v>
       </c>
       <c r="JK3" t="n">
-        <v>5524</v>
+        <v>5532</v>
       </c>
       <c r="JL3" t="n">
-        <v>5492</v>
+        <v>5497</v>
       </c>
       <c r="JM3" t="n">
-        <v>5575</v>
+        <v>5516</v>
       </c>
       <c r="JN3" t="n">
-        <v>5542</v>
+        <v>5495</v>
       </c>
       <c r="JO3" t="n">
-        <v>5594</v>
+        <v>5697</v>
       </c>
       <c r="JP3" t="n">
-        <v>6083</v>
+        <v>6387</v>
       </c>
       <c r="JQ3" t="n">
-        <v>6511</v>
+        <v>6886</v>
       </c>
       <c r="JR3" t="n">
-        <v>6026</v>
+        <v>6444</v>
       </c>
       <c r="JS3" t="n">
-        <v>5777</v>
-      </c>
-      <c r="JT3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="JU3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+        <v>6429</v>
+      </c>
+      <c r="JT3" t="n">
+        <v>6845</v>
+      </c>
+      <c r="JU3" t="n">
+        <v>7124</v>
       </c>
       <c r="JV3" t="inlineStr">
         <is>
@@ -4399,92 +4391,88 @@
         <v>16804</v>
       </c>
       <c r="IT4" t="n">
-        <v>13954</v>
+        <v>13909</v>
       </c>
       <c r="IU4" t="n">
-        <v>14165</v>
+        <v>14094</v>
       </c>
       <c r="IV4" t="n">
-        <v>8285</v>
+        <v>8287</v>
       </c>
       <c r="IW4" t="n">
-        <v>4828</v>
+        <v>4861</v>
       </c>
       <c r="IX4" t="n">
-        <v>4722</v>
+        <v>4724</v>
       </c>
       <c r="IY4" t="n">
-        <v>4364</v>
+        <v>4351</v>
       </c>
       <c r="IZ4" t="n">
-        <v>3799</v>
+        <v>3756</v>
       </c>
       <c r="JA4" t="n">
-        <v>3405</v>
+        <v>3371</v>
       </c>
       <c r="JB4" t="n">
-        <v>3323</v>
+        <v>3328</v>
       </c>
       <c r="JC4" t="n">
-        <v>3553</v>
+        <v>3613</v>
       </c>
       <c r="JD4" t="n">
-        <v>4005</v>
+        <v>3984</v>
       </c>
       <c r="JE4" t="n">
-        <v>4410</v>
+        <v>4203</v>
       </c>
       <c r="JF4" t="n">
-        <v>4367</v>
+        <v>4340</v>
       </c>
       <c r="JG4" t="n">
-        <v>4276</v>
+        <v>4312</v>
       </c>
       <c r="JH4" t="n">
-        <v>4660</v>
+        <v>4675</v>
       </c>
       <c r="JI4" t="n">
-        <v>4848</v>
+        <v>4670</v>
       </c>
       <c r="JJ4" t="n">
-        <v>5467</v>
+        <v>5264</v>
       </c>
       <c r="JK4" t="n">
-        <v>5783</v>
+        <v>5685</v>
       </c>
       <c r="JL4" t="n">
-        <v>5639</v>
+        <v>5850</v>
       </c>
       <c r="JM4" t="n">
-        <v>5312</v>
+        <v>5661</v>
       </c>
       <c r="JN4" t="n">
-        <v>5555</v>
+        <v>5902</v>
       </c>
       <c r="JO4" t="n">
-        <v>6042</v>
+        <v>6310</v>
       </c>
       <c r="JP4" t="n">
-        <v>8205</v>
+        <v>8475</v>
       </c>
       <c r="JQ4" t="n">
-        <v>8604</v>
+        <v>9071</v>
       </c>
       <c r="JR4" t="n">
-        <v>6907</v>
+        <v>7350</v>
       </c>
       <c r="JS4" t="n">
-        <v>8138</v>
-      </c>
-      <c r="JT4" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="JU4" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+        <v>8539</v>
+      </c>
+      <c r="JT4" t="n">
+        <v>9210</v>
+      </c>
+      <c r="JU4" t="n">
+        <v>10734</v>
       </c>
       <c r="JV4" t="inlineStr">
         <is>
@@ -5306,89 +5294,85 @@
         <v>211</v>
       </c>
       <c r="IU5" t="n">
+        <v>208</v>
+      </c>
+      <c r="IV5" t="n">
         <v>207</v>
       </c>
-      <c r="IV5" t="n">
-        <v>206</v>
-      </c>
       <c r="IW5" t="n">
+        <v>209</v>
+      </c>
+      <c r="IX5" t="n">
+        <v>210</v>
+      </c>
+      <c r="IY5" t="n">
+        <v>210</v>
+      </c>
+      <c r="IZ5" t="n">
         <v>208</v>
       </c>
-      <c r="IX5" t="n">
-        <v>208</v>
-      </c>
-      <c r="IY5" t="n">
-        <v>208</v>
-      </c>
-      <c r="IZ5" t="n">
-        <v>206</v>
-      </c>
       <c r="JA5" t="n">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="JB5" t="n">
         <v>190</v>
       </c>
       <c r="JC5" t="n">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="JD5" t="n">
-        <v>167</v>
+        <v>175</v>
       </c>
       <c r="JE5" t="n">
-        <v>162</v>
+        <v>191</v>
       </c>
       <c r="JF5" t="n">
+        <v>224</v>
+      </c>
+      <c r="JG5" t="n">
+        <v>243</v>
+      </c>
+      <c r="JH5" t="n">
+        <v>248</v>
+      </c>
+      <c r="JI5" t="n">
+        <v>240</v>
+      </c>
+      <c r="JJ5" t="n">
+        <v>240</v>
+      </c>
+      <c r="JK5" t="n">
+        <v>248</v>
+      </c>
+      <c r="JL5" t="n">
+        <v>265</v>
+      </c>
+      <c r="JM5" t="n">
+        <v>277</v>
+      </c>
+      <c r="JN5" t="n">
+        <v>284</v>
+      </c>
+      <c r="JO5" t="n">
+        <v>286</v>
+      </c>
+      <c r="JP5" t="n">
+        <v>287</v>
+      </c>
+      <c r="JQ5" t="n">
+        <v>287</v>
+      </c>
+      <c r="JR5" t="n">
+        <v>232</v>
+      </c>
+      <c r="JS5" t="n">
         <v>197</v>
       </c>
-      <c r="JG5" t="n">
-        <v>221</v>
-      </c>
-      <c r="JH5" t="n">
-        <v>233</v>
-      </c>
-      <c r="JI5" t="n">
-        <v>215</v>
-      </c>
-      <c r="JJ5" t="n">
-        <v>212</v>
-      </c>
-      <c r="JK5" t="n">
-        <v>223</v>
-      </c>
-      <c r="JL5" t="n">
-        <v>256</v>
-      </c>
-      <c r="JM5" t="n">
-        <v>270</v>
-      </c>
-      <c r="JN5" t="n">
-        <v>265</v>
-      </c>
-      <c r="JO5" t="n">
-        <v>242</v>
-      </c>
-      <c r="JP5" t="n">
-        <v>231</v>
-      </c>
-      <c r="JQ5" t="n">
-        <v>233</v>
-      </c>
-      <c r="JR5" t="n">
-        <v>247</v>
-      </c>
-      <c r="JS5" t="n">
-        <v>257</v>
-      </c>
-      <c r="JT5" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="JU5" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+      <c r="JT5" t="n">
+        <v>184</v>
+      </c>
+      <c r="JU5" t="n">
+        <v>192</v>
       </c>
       <c r="JV5" t="inlineStr">
         <is>
@@ -6207,92 +6191,88 @@
         <v>1611</v>
       </c>
       <c r="IT6" t="n">
-        <v>1675</v>
+        <v>1640</v>
       </c>
       <c r="IU6" t="n">
-        <v>1692</v>
+        <v>1651</v>
       </c>
       <c r="IV6" t="n">
-        <v>1661</v>
+        <v>1629</v>
       </c>
       <c r="IW6" t="n">
-        <v>1582</v>
+        <v>1572</v>
       </c>
       <c r="IX6" t="n">
-        <v>1568</v>
+        <v>1561</v>
       </c>
       <c r="IY6" t="n">
-        <v>1620</v>
+        <v>1596</v>
       </c>
       <c r="IZ6" t="n">
-        <v>1737</v>
+        <v>1677</v>
       </c>
       <c r="JA6" t="n">
+        <v>1739</v>
+      </c>
+      <c r="JB6" t="n">
+        <v>1780</v>
+      </c>
+      <c r="JC6" t="n">
         <v>1802</v>
       </c>
-      <c r="JB6" t="n">
+      <c r="JD6" t="n">
+        <v>1814</v>
+      </c>
+      <c r="JE6" t="n">
         <v>1815</v>
       </c>
-      <c r="JC6" t="n">
-        <v>1776</v>
-      </c>
-      <c r="JD6" t="n">
-        <v>1754</v>
-      </c>
-      <c r="JE6" t="n">
-        <v>1751</v>
-      </c>
       <c r="JF6" t="n">
-        <v>1752</v>
+        <v>1806</v>
       </c>
       <c r="JG6" t="n">
-        <v>1761</v>
+        <v>1797</v>
       </c>
       <c r="JH6" t="n">
-        <v>1779</v>
+        <v>1789</v>
       </c>
       <c r="JI6" t="n">
-        <v>1769</v>
+        <v>1781</v>
       </c>
       <c r="JJ6" t="n">
-        <v>1767</v>
+        <v>1801</v>
       </c>
       <c r="JK6" t="n">
-        <v>1773</v>
+        <v>1849</v>
       </c>
       <c r="JL6" t="n">
-        <v>1899</v>
+        <v>1925</v>
       </c>
       <c r="JM6" t="n">
-        <v>1985</v>
+        <v>1976</v>
       </c>
       <c r="JN6" t="n">
-        <v>2031</v>
+        <v>2004</v>
       </c>
       <c r="JO6" t="n">
-        <v>2038</v>
+        <v>2007</v>
       </c>
       <c r="JP6" t="n">
-        <v>2051</v>
+        <v>2005</v>
       </c>
       <c r="JQ6" t="n">
-        <v>2069</v>
+        <v>2000</v>
       </c>
       <c r="JR6" t="n">
-        <v>2093</v>
+        <v>1990</v>
       </c>
       <c r="JS6" t="n">
-        <v>2108</v>
-      </c>
-      <c r="JT6" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="JU6" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+        <v>1994</v>
+      </c>
+      <c r="JT6" t="n">
+        <v>2011</v>
+      </c>
+      <c r="JU6" t="n">
+        <v>2041</v>
       </c>
       <c r="JV6" t="inlineStr">
         <is>
@@ -7111,92 +7091,88 @@
         <v>11528</v>
       </c>
       <c r="IT7" t="n">
-        <v>11713</v>
+        <v>12083</v>
       </c>
       <c r="IU7" t="n">
-        <v>11831</v>
+        <v>12128</v>
       </c>
       <c r="IV7" t="n">
-        <v>11745</v>
+        <v>12335</v>
       </c>
       <c r="IW7" t="n">
-        <v>11631</v>
+        <v>12160</v>
       </c>
       <c r="IX7" t="n">
-        <v>11665</v>
+        <v>12247</v>
       </c>
       <c r="IY7" t="n">
-        <v>11810</v>
+        <v>12379</v>
       </c>
       <c r="IZ7" t="n">
-        <v>11814</v>
+        <v>12304</v>
       </c>
       <c r="JA7" t="n">
-        <v>11971</v>
+        <v>12448</v>
       </c>
       <c r="JB7" t="n">
-        <v>12219</v>
+        <v>12756</v>
       </c>
       <c r="JC7" t="n">
-        <v>12383</v>
+        <v>13055</v>
       </c>
       <c r="JD7" t="n">
-        <v>12710</v>
+        <v>13473</v>
       </c>
       <c r="JE7" t="n">
-        <v>12850</v>
+        <v>13664</v>
       </c>
       <c r="JF7" t="n">
-        <v>12984</v>
+        <v>13911</v>
       </c>
       <c r="JG7" t="n">
-        <v>13119</v>
+        <v>14029</v>
       </c>
       <c r="JH7" t="n">
-        <v>13332</v>
+        <v>14196</v>
       </c>
       <c r="JI7" t="n">
-        <v>13255</v>
+        <v>13999</v>
       </c>
       <c r="JJ7" t="n">
-        <v>13435</v>
+        <v>14093</v>
       </c>
       <c r="JK7" t="n">
-        <v>13771</v>
+        <v>14357</v>
       </c>
       <c r="JL7" t="n">
-        <v>13800</v>
+        <v>14351</v>
       </c>
       <c r="JM7" t="n">
-        <v>13973</v>
+        <v>14481</v>
       </c>
       <c r="JN7" t="n">
-        <v>14088</v>
+        <v>14610</v>
       </c>
       <c r="JO7" t="n">
-        <v>13970</v>
+        <v>14574</v>
       </c>
       <c r="JP7" t="n">
-        <v>14103</v>
+        <v>14614</v>
       </c>
       <c r="JQ7" t="n">
-        <v>14258</v>
+        <v>14526</v>
       </c>
       <c r="JR7" t="n">
-        <v>14490</v>
+        <v>14373</v>
       </c>
       <c r="JS7" t="n">
-        <v>14559</v>
-      </c>
-      <c r="JT7" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="JU7" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+        <v>14233</v>
+      </c>
+      <c r="JT7" t="n">
+        <v>14447</v>
+      </c>
+      <c r="JU7" t="n">
+        <v>14502</v>
       </c>
       <c r="JV7" t="inlineStr">
         <is>
@@ -8015,92 +7991,88 @@
         <v>9723</v>
       </c>
       <c r="IT8" t="n">
-        <v>9440</v>
+        <v>9624</v>
       </c>
       <c r="IU8" t="n">
-        <v>9255</v>
+        <v>9466</v>
       </c>
       <c r="IV8" t="n">
-        <v>9023</v>
+        <v>9130</v>
       </c>
       <c r="IW8" t="n">
-        <v>8888</v>
+        <v>8841</v>
       </c>
       <c r="IX8" t="n">
-        <v>8964</v>
+        <v>8862</v>
       </c>
       <c r="IY8" t="n">
-        <v>9108</v>
+        <v>8966</v>
       </c>
       <c r="IZ8" t="n">
-        <v>9362</v>
+        <v>9217</v>
       </c>
       <c r="JA8" t="n">
-        <v>9593</v>
+        <v>9551</v>
       </c>
       <c r="JB8" t="n">
-        <v>9802</v>
+        <v>9974</v>
       </c>
       <c r="JC8" t="n">
-        <v>9988</v>
+        <v>10494</v>
       </c>
       <c r="JD8" t="n">
-        <v>10130</v>
+        <v>10738</v>
       </c>
       <c r="JE8" t="n">
-        <v>10225</v>
+        <v>10696</v>
       </c>
       <c r="JF8" t="n">
-        <v>10026</v>
+        <v>10353</v>
       </c>
       <c r="JG8" t="n">
-        <v>9986</v>
+        <v>10099</v>
       </c>
       <c r="JH8" t="n">
-        <v>10106</v>
+        <v>10009</v>
       </c>
       <c r="JI8" t="n">
-        <v>10385</v>
+        <v>10084</v>
       </c>
       <c r="JJ8" t="n">
-        <v>10511</v>
+        <v>10146</v>
       </c>
       <c r="JK8" t="n">
-        <v>10483</v>
+        <v>10196</v>
       </c>
       <c r="JL8" t="n">
-        <v>10301</v>
+        <v>10234</v>
       </c>
       <c r="JM8" t="n">
-        <v>10266</v>
+        <v>10338</v>
       </c>
       <c r="JN8" t="n">
-        <v>10377</v>
+        <v>10507</v>
       </c>
       <c r="JO8" t="n">
-        <v>10635</v>
+        <v>10743</v>
       </c>
       <c r="JP8" t="n">
-        <v>10819</v>
+        <v>10906</v>
       </c>
       <c r="JQ8" t="n">
-        <v>10930</v>
+        <v>10998</v>
       </c>
       <c r="JR8" t="n">
-        <v>10968</v>
+        <v>10766</v>
       </c>
       <c r="JS8" t="n">
-        <v>10994</v>
-      </c>
-      <c r="JT8" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="JU8" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+        <v>10651</v>
+      </c>
+      <c r="JT8" t="n">
+        <v>10655</v>
+      </c>
+      <c r="JU8" t="n">
+        <v>10775</v>
       </c>
       <c r="JV8" t="inlineStr">
         <is>
@@ -8919,92 +8891,88 @@
         <v>4685</v>
       </c>
       <c r="IT9" t="n">
-        <v>4669</v>
+        <v>4803</v>
       </c>
       <c r="IU9" t="n">
-        <v>4646</v>
+        <v>4775</v>
       </c>
       <c r="IV9" t="n">
-        <v>4642</v>
+        <v>4690</v>
       </c>
       <c r="IW9" t="n">
-        <v>4634</v>
+        <v>4550</v>
       </c>
       <c r="IX9" t="n">
-        <v>4580</v>
+        <v>4468</v>
       </c>
       <c r="IY9" t="n">
-        <v>4505</v>
+        <v>4445</v>
       </c>
       <c r="IZ9" t="n">
-        <v>4403</v>
+        <v>4482</v>
       </c>
       <c r="JA9" t="n">
-        <v>4451</v>
+        <v>4575</v>
       </c>
       <c r="JB9" t="n">
-        <v>4647</v>
+        <v>4724</v>
       </c>
       <c r="JC9" t="n">
-        <v>4989</v>
+        <v>4931</v>
       </c>
       <c r="JD9" t="n">
-        <v>5208</v>
+        <v>5020</v>
       </c>
       <c r="JE9" t="n">
-        <v>5308</v>
+        <v>4994</v>
       </c>
       <c r="JF9" t="n">
-        <v>5013</v>
+        <v>4851</v>
       </c>
       <c r="JG9" t="n">
-        <v>4852</v>
+        <v>4781</v>
       </c>
       <c r="JH9" t="n">
-        <v>4826</v>
+        <v>4784</v>
       </c>
       <c r="JI9" t="n">
-        <v>4956</v>
+        <v>4859</v>
       </c>
       <c r="JJ9" t="n">
-        <v>5008</v>
+        <v>4894</v>
       </c>
       <c r="JK9" t="n">
-        <v>4982</v>
+        <v>4889</v>
       </c>
       <c r="JL9" t="n">
-        <v>4875</v>
+        <v>4843</v>
       </c>
       <c r="JM9" t="n">
-        <v>4796</v>
+        <v>4873</v>
       </c>
       <c r="JN9" t="n">
-        <v>4747</v>
+        <v>4979</v>
       </c>
       <c r="JO9" t="n">
-        <v>4727</v>
+        <v>5159</v>
       </c>
       <c r="JP9" t="n">
-        <v>4698</v>
+        <v>5346</v>
       </c>
       <c r="JQ9" t="n">
-        <v>4662</v>
+        <v>5539</v>
       </c>
       <c r="JR9" t="n">
-        <v>4616</v>
+        <v>5291</v>
       </c>
       <c r="JS9" t="n">
-        <v>4586</v>
-      </c>
-      <c r="JT9" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="JU9" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+        <v>5161</v>
+      </c>
+      <c r="JT9" t="n">
+        <v>5147</v>
+      </c>
+      <c r="JU9" t="n">
+        <v>5250</v>
       </c>
       <c r="JV9" t="inlineStr">
         <is>
@@ -9823,92 +9791,88 @@
         <v>15350</v>
       </c>
       <c r="IT10" t="n">
-        <v>15149</v>
+        <v>15814</v>
       </c>
       <c r="IU10" t="n">
-        <v>15099</v>
+        <v>15849</v>
       </c>
       <c r="IV10" t="n">
-        <v>15201</v>
+        <v>15903</v>
       </c>
       <c r="IW10" t="n">
-        <v>15455</v>
+        <v>15976</v>
       </c>
       <c r="IX10" t="n">
-        <v>15542</v>
+        <v>16085</v>
       </c>
       <c r="IY10" t="n">
-        <v>15462</v>
+        <v>16231</v>
       </c>
       <c r="IZ10" t="n">
-        <v>15215</v>
+        <v>16412</v>
       </c>
       <c r="JA10" t="n">
-        <v>15093</v>
+        <v>16508</v>
       </c>
       <c r="JB10" t="n">
-        <v>15094</v>
+        <v>16519</v>
       </c>
       <c r="JC10" t="n">
-        <v>15220</v>
+        <v>16445</v>
       </c>
       <c r="JD10" t="n">
-        <v>15304</v>
+        <v>16530</v>
       </c>
       <c r="JE10" t="n">
-        <v>15346</v>
+        <v>16772</v>
       </c>
       <c r="JF10" t="n">
-        <v>16039</v>
+        <v>17173</v>
       </c>
       <c r="JG10" t="n">
-        <v>16556</v>
+        <v>17514</v>
       </c>
       <c r="JH10" t="n">
-        <v>16898</v>
+        <v>17795</v>
       </c>
       <c r="JI10" t="n">
-        <v>17065</v>
+        <v>18017</v>
       </c>
       <c r="JJ10" t="n">
-        <v>17198</v>
+        <v>18162</v>
       </c>
       <c r="JK10" t="n">
-        <v>17299</v>
+        <v>18229</v>
       </c>
       <c r="JL10" t="n">
-        <v>17367</v>
+        <v>18219</v>
       </c>
       <c r="JM10" t="n">
-        <v>17433</v>
+        <v>18259</v>
       </c>
       <c r="JN10" t="n">
-        <v>17497</v>
+        <v>18350</v>
       </c>
       <c r="JO10" t="n">
-        <v>17559</v>
+        <v>18491</v>
       </c>
       <c r="JP10" t="n">
-        <v>17702</v>
+        <v>18585</v>
       </c>
       <c r="JQ10" t="n">
-        <v>17926</v>
+        <v>18632</v>
       </c>
       <c r="JR10" t="n">
-        <v>18231</v>
+        <v>18918</v>
       </c>
       <c r="JS10" t="n">
-        <v>18434</v>
-      </c>
-      <c r="JT10" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="JU10" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+        <v>19157</v>
+      </c>
+      <c r="JT10" t="n">
+        <v>19351</v>
+      </c>
+      <c r="JU10" t="n">
+        <v>19499</v>
       </c>
       <c r="JV10" t="inlineStr">
         <is>
@@ -10727,92 +10691,88 @@
         <v>1774</v>
       </c>
       <c r="IT11" t="n">
-        <v>1688</v>
+        <v>1719</v>
       </c>
       <c r="IU11" t="n">
-        <v>1636</v>
+        <v>1684</v>
       </c>
       <c r="IV11" t="n">
-        <v>1483</v>
+        <v>1510</v>
       </c>
       <c r="IW11" t="n">
-        <v>1360</v>
+        <v>1353</v>
       </c>
       <c r="IX11" t="n">
-        <v>1373</v>
+        <v>1365</v>
       </c>
       <c r="IY11" t="n">
         <v>1387</v>
       </c>
       <c r="IZ11" t="n">
-        <v>1746</v>
+        <v>1765</v>
       </c>
       <c r="JA11" t="n">
-        <v>1962</v>
+        <v>1999</v>
       </c>
       <c r="JB11" t="n">
-        <v>2032</v>
+        <v>2086</v>
       </c>
       <c r="JC11" t="n">
-        <v>1954</v>
+        <v>2023</v>
       </c>
       <c r="JD11" t="n">
-        <v>1913</v>
+        <v>1978</v>
       </c>
       <c r="JE11" t="n">
-        <v>1910</v>
+        <v>1950</v>
       </c>
       <c r="JF11" t="n">
-        <v>1828</v>
+        <v>1938</v>
       </c>
       <c r="JG11" t="n">
-        <v>1805</v>
+        <v>1928</v>
       </c>
       <c r="JH11" t="n">
-        <v>1841</v>
+        <v>1964</v>
       </c>
       <c r="JI11" t="n">
-        <v>1942</v>
+        <v>2046</v>
       </c>
       <c r="JJ11" t="n">
-        <v>1992</v>
+        <v>2083</v>
       </c>
       <c r="JK11" t="n">
-        <v>1990</v>
+        <v>2074</v>
       </c>
       <c r="JL11" t="n">
-        <v>1929</v>
+        <v>2019</v>
       </c>
       <c r="JM11" t="n">
-        <v>1900</v>
+        <v>1984</v>
       </c>
       <c r="JN11" t="n">
-        <v>1902</v>
+        <v>1967</v>
       </c>
       <c r="JO11" t="n">
-        <v>1934</v>
+        <v>1969</v>
       </c>
       <c r="JP11" t="n">
-        <v>1950</v>
+        <v>1971</v>
       </c>
       <c r="JQ11" t="n">
-        <v>1951</v>
+        <v>1972</v>
       </c>
       <c r="JR11" t="n">
-        <v>1936</v>
+        <v>1938</v>
       </c>
       <c r="JS11" t="n">
-        <v>1926</v>
-      </c>
-      <c r="JT11" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="JU11" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+        <v>1919</v>
+      </c>
+      <c r="JT11" t="n">
+        <v>1914</v>
+      </c>
+      <c r="JU11" t="n">
+        <v>1923</v>
       </c>
       <c r="JV11" t="inlineStr">
         <is>
@@ -11631,92 +11591,88 @@
         <v>1788</v>
       </c>
       <c r="IT12" t="n">
-        <v>1865</v>
+        <v>1896</v>
       </c>
       <c r="IU12" t="n">
-        <v>1901</v>
+        <v>1929</v>
       </c>
       <c r="IV12" t="n">
-        <v>1820</v>
+        <v>1847</v>
       </c>
       <c r="IW12" t="n">
-        <v>1691</v>
+        <v>1720</v>
       </c>
       <c r="IX12" t="n">
-        <v>1684</v>
+        <v>1714</v>
       </c>
       <c r="IY12" t="n">
-        <v>1720</v>
+        <v>1751</v>
       </c>
       <c r="IZ12" t="n">
-        <v>1815</v>
+        <v>1848</v>
       </c>
       <c r="JA12" t="n">
-        <v>1858</v>
+        <v>1891</v>
       </c>
       <c r="JB12" t="n">
-        <v>1855</v>
+        <v>1886</v>
       </c>
       <c r="JC12" t="n">
-        <v>1809</v>
+        <v>1837</v>
       </c>
       <c r="JD12" t="n">
-        <v>1799</v>
+        <v>1827</v>
       </c>
       <c r="JE12" t="n">
-        <v>1825</v>
+        <v>1856</v>
       </c>
       <c r="JF12" t="n">
-        <v>1907</v>
+        <v>1917</v>
       </c>
       <c r="JG12" t="n">
-        <v>1958</v>
+        <v>1948</v>
       </c>
       <c r="JH12" t="n">
-        <v>1976</v>
+        <v>1954</v>
       </c>
       <c r="JI12" t="n">
-        <v>1947</v>
+        <v>1928</v>
       </c>
       <c r="JJ12" t="n">
-        <v>1935</v>
+        <v>1916</v>
       </c>
       <c r="JK12" t="n">
-        <v>1940</v>
+        <v>1919</v>
       </c>
       <c r="JL12" t="n">
-        <v>1923</v>
+        <v>1898</v>
       </c>
       <c r="JM12" t="n">
-        <v>1919</v>
+        <v>1902</v>
       </c>
       <c r="JN12" t="n">
-        <v>1916</v>
+        <v>1921</v>
       </c>
       <c r="JO12" t="n">
-        <v>1953</v>
+        <v>1954</v>
       </c>
       <c r="JP12" t="n">
-        <v>1980</v>
+        <v>2019</v>
       </c>
       <c r="JQ12" t="n">
-        <v>2010</v>
+        <v>2118</v>
       </c>
       <c r="JR12" t="n">
-        <v>2036</v>
+        <v>2549</v>
       </c>
       <c r="JS12" t="n">
-        <v>2055</v>
-      </c>
-      <c r="JT12" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="JU12" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+        <v>2899</v>
+      </c>
+      <c r="JT12" t="n">
+        <v>3166</v>
+      </c>
+      <c r="JU12" t="n">
+        <v>3310</v>
       </c>
       <c r="JV12" t="inlineStr">
         <is>
